--- a/requisiti/data dictionary.xlsx
+++ b/requisiti/data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semmo\Desktop\Progetto 2018-2019\traffic-monitor\requisiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D01CC-BFC5-49C9-9E50-AE0944DD64EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7456BC3-5E94-4253-86A5-CEAE8C4B009B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="163">
   <si>
     <t>Nome</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Stato(bool)</t>
   </si>
   <si>
-    <t>Notifica, dati di traffico, posizione, coda,</t>
-  </si>
-  <si>
     <t>Centralina automobilistica</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>Centralina del veicolo</t>
-  </si>
-  <si>
-    <t>-36.82065, 175.07823  | 30 | 25 (Il sistema, attraverso dei sensori, riceve la velocità e la posizione del veicolo, trasmettendola a intervalli di tempo fissati al sistema centrale)</t>
   </si>
   <si>
     <t>Centralina</t>
@@ -437,6 +431,90 @@
   </si>
   <si>
     <t xml:space="preserve">1154 (id) | -24.82065, 95.07823 | 50 (velocità) </t>
+  </si>
+  <si>
+    <t>Sistema centrale</t>
+  </si>
+  <si>
+    <t>Sistema informatico composto da un server che mantenga in memoria i dati relativi al traffico e una potente unità di elaborazione che gestisca i dati ricevuti dalle unità esterne.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che indica il numero delle centraline stradali attive, un intero positivo contenente il numero di centraline automobilistiche attive e un intero positivo che indica il numero di applicazioni mobili in utilizzo.</t>
+  </si>
+  <si>
+    <t>42 bit</t>
+  </si>
+  <si>
+    <t>unità centrale</t>
+  </si>
+  <si>
+    <t>156 (numero centraline stradali) | 8000 (numero centraline auto) | 10000 (numero applicazioni</t>
+  </si>
+  <si>
+    <t>numero centraline stradali, numero centraline auto, numero applicazioni</t>
+  </si>
+  <si>
+    <t>Centralina auto, centralina stradale, utente, applicazione, dati di traffico, velocità, mappa, posizione, diagramma, coda, velocità lenta, traffico elevato</t>
+  </si>
+  <si>
+    <t>Amministratore</t>
+  </si>
+  <si>
+    <t>Utente incaricato della gestione e del consulto del sistema centrale.</t>
+  </si>
+  <si>
+    <t>128 bit</t>
+  </si>
+  <si>
+    <t>È formato da una stringa che indica il suo nume utente (massimo 8 caratteri) e da una stringa che indica la sua password (massimo 8 caratteri).</t>
+  </si>
+  <si>
+    <t>Gestore, addetto</t>
+  </si>
+  <si>
+    <t>Luca | passluca</t>
+  </si>
+  <si>
+    <t>Nomeutente, password</t>
+  </si>
+  <si>
+    <t>Utente</t>
+  </si>
+  <si>
+    <t>Utilizzatore dell'applicazione mobile.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che lo identifica.</t>
+  </si>
+  <si>
+    <t>Guidatore, utilizzatore</t>
+  </si>
+  <si>
+    <t>identificativo</t>
+  </si>
+  <si>
+    <t>Applicazione mobile</t>
+  </si>
+  <si>
+    <t>Componente software che serve per instaurare la comunicazione tra l'utente e il sistema centrale.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo necessario per la sua identificazione e da un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -36.82065, 175.07823  | 30 | 25 (Il sistema, attraverso dei sensori, riceve la velocità e la posizione del veicolo, trasmettendola a intervalli di tempo fissati al sistema centrale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34576 | -36.82065, 175.07823 </t>
+  </si>
+  <si>
+    <t>Identificativo</t>
+  </si>
+  <si>
+    <t>Notifica, dati di traffico, posizione, coda</t>
+  </si>
+  <si>
+    <t>Utente, sistema centrale, posizione, notifica</t>
   </si>
 </sst>
 </file>
@@ -609,13 +687,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1104901</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2274607</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -659,13 +737,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152526</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2200276</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>680509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1005,11 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,476 +1143,592 @@
     </row>
     <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>114</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="4">
+        <v>11544</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/requisiti/data dictionary.xlsx
+++ b/requisiti/data dictionary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semmo\Desktop\Progetto 2018-2019\traffic-monitor\requisiti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\prova finale\traffic-monitor\requisiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7456BC3-5E94-4253-86A5-CEAE8C4B009B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data dictionary" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="162">
   <si>
     <t>Nome</t>
   </si>
@@ -99,9 +98,6 @@
     <t>Centralina</t>
   </si>
   <si>
-    <t>Posizione (70 bit), Periodo (10 bit), Velocità (9 bit)</t>
-  </si>
-  <si>
     <t>Dati di traffico, Velocità, Posizione, Intervallo di tempo, Automobile</t>
   </si>
   <si>
@@ -123,12 +119,6 @@
     <t>Stato(string)</t>
   </si>
   <si>
-    <t>Intervallo di tempo, conteggio, posizione</t>
-  </si>
-  <si>
-    <t>Intervallo di tempo, notifica, dati di traffico, velocità, conteggio, posizione,</t>
-  </si>
-  <si>
     <t>Coda</t>
   </si>
   <si>
@@ -144,22 +134,10 @@
     <t>Incolonnamento</t>
   </si>
   <si>
-    <t>1, -36.82065, 175.07823 significa che in posizione -36.82065, 175.07823 è presente una coda.</t>
-  </si>
-  <si>
-    <t>esiste_coda (1 bit)</t>
-  </si>
-  <si>
-    <t>Posizione (70 bit)</t>
-  </si>
-  <si>
     <t>Dati di traffico, Notifica, Automobile</t>
   </si>
   <si>
     <t>Conteggio veicoli</t>
-  </si>
-  <si>
-    <t>Classe per il conteggio dei veicoli rilevati da una centralina stradale in un determinato intervallo di tempo.</t>
   </si>
   <si>
     <t>È formato da un intero positivo che rappresenta il numero di veicoli, da due flag che indicano il comando di reset del conteggio e la presenza di overflow.</t>
@@ -190,9 +168,6 @@
     <t>È formato da un intero positivo che rappresenta la velocità media, dalla posizione geografica espressa con due numeri di dieci cifre, e da una stringa di massimo 16 caratteri per il tipo di traffico</t>
   </si>
   <si>
-    <t>16bit+70bit+ 240bit=326bit</t>
-  </si>
-  <si>
     <t>Stato del traffico, flusso</t>
   </si>
   <si>
@@ -208,9 +183,6 @@
     <t>Velocità, posizione</t>
   </si>
   <si>
-    <t>Velocità, posizione, app mobile, sistema centrale, centralina stradale, centralina automobile</t>
-  </si>
-  <si>
     <t>Diagramma</t>
   </si>
   <si>
@@ -277,9 +249,6 @@
     <t>Posizione, dati di traffico</t>
   </si>
   <si>
-    <t>Coda, velocità lenta, traffico elevato, posizione, raggio, veicolo, app mobile</t>
-  </si>
-  <si>
     <t>Notifica</t>
   </si>
   <si>
@@ -304,9 +273,6 @@
     <t>Posizione</t>
   </si>
   <si>
-    <t>Dati di traffico, velocità lenta, raggio, conteggio, posizione, centralina auto, coda, intervallo di tempo, centralina stradale, bottone, traffico elevato</t>
-  </si>
-  <si>
     <t>Posizione espressa in coordinate GPS (latitudine e longitudine)</t>
   </si>
   <si>
@@ -325,9 +291,6 @@
     <t>Latitudine (35 bit, virgola mobile), longitudine (35 bit, virgola mobile)</t>
   </si>
   <si>
-    <t>Mappa, Coda, Centralina stradale, Centralina automobilistica, Traffico elevato, Automobile</t>
-  </si>
-  <si>
     <t>Raggio</t>
   </si>
   <si>
@@ -343,9 +306,6 @@
     <t>500 m</t>
   </si>
   <si>
-    <t>Mappa, app mobile, posizione</t>
-  </si>
-  <si>
     <t>Stato veicolo</t>
   </si>
   <si>
@@ -388,9 +348,6 @@
     <t xml:space="preserve">Posizione </t>
   </si>
   <si>
-    <t>Notifica, dati di traffico, mappa, conteggio, posizione,</t>
-  </si>
-  <si>
     <t>Velocità</t>
   </si>
   <si>
@@ -427,9 +384,6 @@
     <t>Velocità, posizione, dati di traffico, notifica</t>
   </si>
   <si>
-    <t>32.82065, 95.07823 | “accesa” | 230 (intervallo di tempo) | 50 (conteggio), -24.82065, 95.07823 | “spenta” | 75 | 150</t>
-  </si>
-  <si>
     <t xml:space="preserve">1154 (id) | -24.82065, 95.07823 | 50 (velocità) </t>
   </si>
   <si>
@@ -448,9 +402,6 @@
     <t>unità centrale</t>
   </si>
   <si>
-    <t>156 (numero centraline stradali) | 8000 (numero centraline auto) | 10000 (numero applicazioni</t>
-  </si>
-  <si>
     <t>numero centraline stradali, numero centraline auto, numero applicazioni</t>
   </si>
   <si>
@@ -466,9 +417,6 @@
     <t>128 bit</t>
   </si>
   <si>
-    <t>È formato da una stringa che indica il suo nume utente (massimo 8 caratteri) e da una stringa che indica la sua password (massimo 8 caratteri).</t>
-  </si>
-  <si>
     <t>Gestore, addetto</t>
   </si>
   <si>
@@ -515,12 +463,60 @@
   </si>
   <si>
     <t>Utente, sistema centrale, posizione, notifica</t>
+  </si>
+  <si>
+    <t>È formato da una stringa che indica il suo nome utente (massimo 8 caratteri) e da una stringa che indica la sua password (massimo 8 caratteri).</t>
+  </si>
+  <si>
+    <t>1, 36.82065, 175.07823 significa che in posizione 36.82065, 175.07823 è presente una coda.</t>
+  </si>
+  <si>
+    <t>Enumerazione dei veicoli rilevati da una centralina stradale in un determinato intervallo di tempo.</t>
+  </si>
+  <si>
+    <t>16bit+70bit+ 256bit=342bit</t>
+  </si>
+  <si>
+    <t>“accesa” | 32.82065, 95.07823 | 30 (m/s) | 230 (intervallo di tempo) | 50 (conteggio), "spenta" |-24.82065, 95.07823 | null | null | null</t>
+  </si>
+  <si>
+    <t>Intervallo di tempo, velocità, conteggio, posizione</t>
+  </si>
+  <si>
+    <t>Posizione, intervallo di tempo, Velocità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esiste_coda </t>
+  </si>
+  <si>
+    <t>Coda, velocità lenta, traffico elevato, posizione, raggio, veicolo, applicazione mobile</t>
+  </si>
+  <si>
+    <t>Velocità, posizione, applicazione mobile, sistema centrale, centralina stradale, centralina automobile</t>
+  </si>
+  <si>
+    <t>Dati di traffico, velocità lenta, raggio, conteggio, posizione, coda, intervallo di tempo, bottone, traffico elevato, applicazione mobile</t>
+  </si>
+  <si>
+    <t>Mappa, Coda, Centralina stradale, Centralina automobilistica, Traffico elevato, Automobile, applicazione mobile</t>
+  </si>
+  <si>
+    <t>Mappa, applicazione mobile, posizione</t>
+  </si>
+  <si>
+    <t>100 (numero centraline stradali) | 8000 (numero centraline auto) | 10000 (numero applicazioni)</t>
+  </si>
+  <si>
+    <t>Notifica, dati di traffico, mappa, conteggio, posizione</t>
+  </si>
+  <si>
+    <t>Intervallo di tempo, notifica, dati di traffico, velocità, conteggio, posizione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,14 +690,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>2274607</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Immagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5007A2E3-038B-44EB-8CBD-6D73B06A7DD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5007A2E3-038B-44EB-8CBD-6D73B06A7DD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +747,7 @@
         <xdr:cNvPr id="5" name="Immagine 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B672CE-7B9B-4F4E-9F01-C3FFBCF554D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83B672CE-7B9B-4F4E-9F01-C3FFBCF554D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,12 +1078,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,60 +1139,60 @@
     </row>
     <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,7 +1221,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1241,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
@@ -1253,414 +1249,414 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F19" s="4">
         <v>11544</v>
@@ -1668,67 +1664,67 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/requisiti/data dictionary.xlsx
+++ b/requisiti/data dictionary.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\prova finale\traffic-monitor\requisiti\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Data dictionary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,180 +24,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
-  <si>
-    <t xml:space="preserve">Nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo di dato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimensione del dato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinonimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esempi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sottotipi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supertipi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attributi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Componenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amministratore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utente incaricato della gestione e della consultazione del sistema centrale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da una stringa che indica il suo nome utente (massimo 8 caratteri) e da una stringa che indica la sua password (massimo 8 caratteri).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestore, addetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luca | passluca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomeutente, password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema centrale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applicazione mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Componente software che serve per instaurare la comunicazione tra l'utente e il sistema centrale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un intero positivo necessario per la sua identificazione e da un dato di tipo posizione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134 bit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="160">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Definizione</t>
+  </si>
+  <si>
+    <t>Tipo di dato</t>
+  </si>
+  <si>
+    <t>Dimensione del dato</t>
+  </si>
+  <si>
+    <t>Sinonimi</t>
+  </si>
+  <si>
+    <t>Esempi</t>
+  </si>
+  <si>
+    <t>Sottotipi</t>
+  </si>
+  <si>
+    <t>Supertipi</t>
+  </si>
+  <si>
+    <t>Attributi</t>
+  </si>
+  <si>
+    <t>Componenti</t>
+  </si>
+  <si>
+    <t>Relazioni</t>
+  </si>
+  <si>
+    <t>Amministratore</t>
+  </si>
+  <si>
+    <t>Utente incaricato della gestione e della consultazione del sistema centrale.</t>
+  </si>
+  <si>
+    <t>È formato da una stringa che indica il suo nome utente (massimo 8 caratteri) e da una stringa che indica la sua password (massimo 8 caratteri).</t>
+  </si>
+  <si>
+    <t>128 bit</t>
+  </si>
+  <si>
+    <t>Gestore, addetto</t>
+  </si>
+  <si>
+    <t>Luca | passluca</t>
+  </si>
+  <si>
+    <t>Nomeutente, password</t>
+  </si>
+  <si>
+    <t>Sistema centrale</t>
+  </si>
+  <si>
+    <t>Applicazione mobile</t>
+  </si>
+  <si>
+    <t>Componente software che serve per instaurare la comunicazione tra l'utente e il sistema centrale.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo necessario per la sua identificazione e da un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t>134 bit</t>
   </si>
   <si>
     <t xml:space="preserve">34576 | -36.82065, 175.07823 </t>
   </si>
   <si>
-    <t xml:space="preserve">Identificativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utente, sistema centrale, posizione, notifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasto a disposizione dell’utente di una applicazione mobile per segnalare la presenza di coda in una determinata posizione</t>
+    <t>Identificativo</t>
+  </si>
+  <si>
+    <t>Posizione</t>
+  </si>
+  <si>
+    <t>Utente, sistema centrale, posizione, notifica</t>
+  </si>
+  <si>
+    <t>Bottone</t>
+  </si>
+  <si>
+    <t>Tasto a disposizione dell’utente di una applicazione mobile per segnalare la presenza di coda in una determinata posizione</t>
   </si>
   <si>
     <t xml:space="preserve"> È formato da un booleano che indica lo stato del bottone (premuto o no).</t>
   </si>
   <si>
-    <t xml:space="preserve">1 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasto, pulsante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True (premuto), false (non premuto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stato(bool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifica, dati di traffico, posizione, coda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralina automobilistica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralina installata all’interno di un veicolo in grado di trasmettere al sistema centrale i dati di posizione e velocità del veicolo stesso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un dato di tipo posizione, un dato di tipo velocità e uno di tipo intervallo di tempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralina del veicolo</t>
+    <t>1 bit</t>
+  </si>
+  <si>
+    <t>Tasto, pulsante</t>
+  </si>
+  <si>
+    <t>True (premuto), false (non premuto)</t>
+  </si>
+  <si>
+    <t>Stato(bool)</t>
+  </si>
+  <si>
+    <t>Notifica, dati di traffico, posizione, coda</t>
+  </si>
+  <si>
+    <t>Centralina automobilistica</t>
+  </si>
+  <si>
+    <t>Centralina installata all’interno di un veicolo in grado di trasmettere al sistema centrale i dati di posizione e velocità del veicolo stesso.</t>
+  </si>
+  <si>
+    <t>È formato da un dato di tipo posizione, un dato di tipo velocità e uno di tipo intervallo di tempo.</t>
+  </si>
+  <si>
+    <t>89 bit</t>
+  </si>
+  <si>
+    <t>Centralina del veicolo</t>
   </si>
   <si>
     <t xml:space="preserve"> -36.82065, 175.07823  | 30 | 25 (Il sistema, attraverso dei sensori, riceve la velocità e la posizione del veicolo, trasmettendola a intervalli di tempo fissati al sistema centrale)</t>
   </si>
   <si>
-    <t xml:space="preserve">Centralina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione, intervallo di tempo, Velocità</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dati di traffico, Velocità, Posizione, Intervallo di tempo, Automobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralina stradale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispositivo adibito al controllo costante del flusso automobilistico in un determinato segmento stradale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da una stringa che indica lo stato, da un dato di tipo posizione, un dato di tipo velocità, uno di tipo conteggio e uno di tipo intervallo di tempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stazione stradale, cellula stradale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“accesa” | 32.82065, 95.07823 | 30 (m/s) | 230 (intervallo di tempo) | 50 (conteggio), "spenta" |-24.82065, 95.07823 | null | null | null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stato(string)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervallo di tempo, velocità, conteggio, posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervallo di tempo, notifica, dati di traffico, velocità, conteggio, posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicazione della presenza o dell’assenza di una coda in una determinata posizione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un booleano che indica la presenza di coda e da un dato di tipo posizione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incolonnamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 36.82065, 175.07823 significa che in posizione 36.82065, 175.07823 è presente una coda.</t>
+    <t>Centralina</t>
+  </si>
+  <si>
+    <t>Posizione, intervallo di tempo, Velocità</t>
+  </si>
+  <si>
+    <t>Dati di traffico, Velocità, Posizione, Intervallo di tempo, Automobile</t>
+  </si>
+  <si>
+    <t>Centralina stradale</t>
+  </si>
+  <si>
+    <t>Dispositivo adibito al controllo costante del flusso automobilistico in un determinato segmento stradale.</t>
+  </si>
+  <si>
+    <t>È formato da una stringa che indica lo stato, da un dato di tipo posizione, un dato di tipo velocità, uno di tipo conteggio e uno di tipo intervallo di tempo.</t>
+  </si>
+  <si>
+    <t>Stazione stradale, cellula stradale</t>
+  </si>
+  <si>
+    <t>“accesa” | 32.82065, 95.07823 | 30 (m/s) | 230 (intervallo di tempo) | 50 (conteggio), "spenta" |-24.82065, 95.07823 | null | null | null</t>
+  </si>
+  <si>
+    <t>Stato(string)</t>
+  </si>
+  <si>
+    <t>Intervallo di tempo, velocità, conteggio, posizione</t>
+  </si>
+  <si>
+    <t>Intervallo di tempo, notifica, dati di traffico, velocità, conteggio, posizione</t>
+  </si>
+  <si>
+    <t>Coda</t>
+  </si>
+  <si>
+    <t>Indicazione della presenza o dell’assenza di una coda in una determinata posizione.</t>
+  </si>
+  <si>
+    <t>È formato da un booleano che indica la presenza di coda e da un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t>71 bit</t>
+  </si>
+  <si>
+    <t>Incolonnamento</t>
+  </si>
+  <si>
+    <t>1, 36.82065, 175.07823 significa che in posizione 36.82065, 175.07823 è presente una coda.</t>
   </si>
   <si>
     <t xml:space="preserve">esiste_coda </t>
@@ -202,318 +206,312 @@
     <t xml:space="preserve">Posizione </t>
   </si>
   <si>
-    <t xml:space="preserve">Dati di traffico, Notifica, Automobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conteggio veicoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerazione dei veicoli rilevati da una centralina stradale in un determinato intervallo di tempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un intero positivo che rappresenta il numero di veicoli, da due flag che indicano il comando di reset del conteggio e la presenza di overflow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 bit (può contare un numero di automobili dell’ordine di grandezza della popolazione mondiale)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conteggio passaggi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 | 0 | 0 (esempio di dato)
+    <t>Dati di traffico, Notifica, Automobile</t>
+  </si>
+  <si>
+    <t>Conteggio veicoli</t>
+  </si>
+  <si>
+    <t>Enumerazione dei veicoli rilevati da una centralina stradale in un determinato intervallo di tempo.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che rappresenta il numero di veicoli, da due flag che indicano il comando di reset del conteggio e la presenza di overflow.</t>
+  </si>
+  <si>
+    <t>32 bit (può contare un numero di automobili dell’ordine di grandezza della popolazione mondiale)</t>
+  </si>
+  <si>
+    <t>Conteggio passaggi</t>
+  </si>
+  <si>
+    <t>75 | 0 | 0 (esempio di dato)
 Per ogni veicolo rilevato il contatore aumenta di un’unità, a meno che reset non valga 1. Se supera il limite massimo del conteggio segnala un errore di overflow ponendo l’attributo overflow a 1.</t>
   </si>
   <si>
-    <t xml:space="preserve">numero_veicoli (30 bit), reset (1 bit), overflow (1 bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dati di traffico, Centralina stradale, Intervallo di tempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dati di traffico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variabile che identifica la mobilità di un tratto stradale in funzione della velocità dei veicoli e del loro numero in un intervallo di tempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un intero positivo che rappresenta la velocità media, dalla posizione geografica espressa con due numeri di dieci cifre, e da una stringa di massimo 16 caratteri per il tipo di traffico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16bit+70bit+ 256bit=342bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stato del traffico, flusso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 | -36.82065, 175.07823 | “velocità lenta”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coda, traffico elevato, velocità lenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo di traffico (string)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocità, posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocità, posizione, applicazione mobile, sistema centrale, centralina stradale, centralina automobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagramma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rappresentazione grafica di dati riguardanti le condizioni del traffico.</t>
+    <t>numero_veicoli (30 bit), reset (1 bit), overflow (1 bit)</t>
+  </si>
+  <si>
+    <t>Dati di traffico, Centralina stradale, Intervallo di tempo</t>
+  </si>
+  <si>
+    <t>Dati di traffico</t>
+  </si>
+  <si>
+    <t>Variabile che identifica la mobilità di un tratto stradale in funzione della velocità dei veicoli e del loro numero in un intervallo di tempo</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che rappresenta la velocità media, dalla posizione geografica espressa con due numeri di dieci cifre, e da una stringa di massimo 16 caratteri per il tipo di traffico</t>
+  </si>
+  <si>
+    <t>16bit+70bit+ 256bit=342bit</t>
+  </si>
+  <si>
+    <t>Stato del traffico, flusso</t>
+  </si>
+  <si>
+    <t>30 | -36.82065, 175.07823 | “velocità lenta”</t>
+  </si>
+  <si>
+    <t>Coda, traffico elevato, velocità lenta</t>
+  </si>
+  <si>
+    <t>Tipo di traffico (string)</t>
+  </si>
+  <si>
+    <t>Velocità, posizione</t>
+  </si>
+  <si>
+    <t>Velocità, posizione, applicazione mobile, sistema centrale, centralina stradale, centralina automobile</t>
+  </si>
+  <si>
+    <t>Diagramma</t>
+  </si>
+  <si>
+    <t>Rappresentazione grafica di dati riguardanti le condizioni del traffico.</t>
   </si>
   <si>
     <t xml:space="preserve"> È formato da una lista puntata di coordinate e da informazioni sul colore espresse in formato RGBA.</t>
   </si>
   <si>
-    <t xml:space="preserve">variabile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagramma2D, Diagramma3D, Diagramma4D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista_punti (ogni punto da 20 a 40 bit), colore (10 bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punto, Dati di traffico, Mappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervallo di tempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodicità con cui viene notificato lo stato del traffico da parte dei sottosistemi al sistema centrale. Può essere un intervallo fisso o variabile a seconda del sottosistema da cui viene inviato.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intero positivo che indica la durata della periodicità.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 bit (espresso in secondi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodo, frequenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100, 300, 640, 120 (secondi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifica, centralina stradale, traffico elevato, dati di traffico, conteggio, centralina auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rappresentazione grafica delle strade caricabili dalla posizione individuata dall’applicazione mobile con i relativi dati di traffico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dato che rappresenta un interpolazione di coordinate colorate in RGBA e che segnala i tratti di strada che presentano traffico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variabile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartina stradale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffico, colore, segnali, lista punti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione, dati di traffico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coda, velocità lenta, traffico elevato, posizione, raggio, veicolo, applicazione mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segnalazione dell’avvenimento di un dato evento stradale riguardante il traffico. Può essere indirizzata da un sottosistema verso il sistema centrale o dal sistema centrale verso le applicazioni mobili, oppure anche da queste ultime verso l’utente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da una stringa che indica il tipo di notifica, e un dato di tipo posizione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segnalazione, avviso, allarme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“coda” | 36.82065, 175.07823, “velocità lenta” | 36.82065, 175.07823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NotificaDaSC,notificaASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo(string)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dati di traffico, velocità lenta, raggio, conteggio, posizione, coda, intervallo di tempo, bottone, traffico elevato, applicazione mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione espressa in coordinate GPS (latitudine e longitudine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da due numeri espressi in virgola mobile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione GPS, Coordinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.82065, 175.07823 (esempio di dato)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitudine (35 bit, virgola mobile), longitudine (35 bit, virgola mobile)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mappa, Coda, Centralina stradale, Centralina automobilistica, Traffico elevato, Automobile, applicazione mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distanza in metri tra la posizione rilevata dall’applicazione mobile e la porzione di mappa caricabile sullo smartphone (viene caricata un’area circolare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intero positivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mappa, applicazione mobile, posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema informatico composto da un server che mantenga in memoria i dati relativi al traffico e una potente unità di elaborazione che gestisca i dati ricevuti dalle unità esterne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato dall’insieme dei dati di traffico e delle notifiche scambiati con gli altri sistemi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unità centrale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (numero centraline stradali) | 8000 (numero centraline auto) | 10000 (numero applicazioni)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dati di traffico, notifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralina auto, centralina stradale, utente, applicazione, dati di traffico, velocità, mappa, posizione, diagramma, coda, velocità lenta, traffico elevato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stato veicolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insieme di dati inviati dalla centralina automobilistica riguardanti la posizione, la velocità e l'identificativo del veicolo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un intero positivo che definisce l'identificativo e da un dato posizione e uno velocità.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto, automobile, macchina, unità</t>
+    <t>variabile</t>
+  </si>
+  <si>
+    <t>Grafico</t>
+  </si>
+  <si>
+    <t>Diagramma2D, Diagramma3D, Diagramma4D</t>
+  </si>
+  <si>
+    <t>Lista_punti (ogni punto da 20 a 40 bit), colore (10 bit)</t>
+  </si>
+  <si>
+    <t>Punto, Dati di traffico, Mappa</t>
+  </si>
+  <si>
+    <t>Intervallo di tempo</t>
+  </si>
+  <si>
+    <t>Periodicità con cui viene notificato lo stato del traffico da parte dei sottosistemi al sistema centrale. Può essere un intervallo fisso o variabile a seconda del sottosistema da cui viene inviato.</t>
+  </si>
+  <si>
+    <t>Intero positivo che indica la durata della periodicità.</t>
+  </si>
+  <si>
+    <t>15 bit (espresso in secondi)</t>
+  </si>
+  <si>
+    <t>Periodo, frequenza</t>
+  </si>
+  <si>
+    <t>100, 300, 640, 120 (secondi)</t>
+  </si>
+  <si>
+    <t>Notifica, centralina stradale, traffico elevato, dati di traffico, conteggio, centralina auto</t>
+  </si>
+  <si>
+    <t>Mappa</t>
+  </si>
+  <si>
+    <t>Rappresentazione grafica delle strade caricabili dalla posizione individuata dall’applicazione mobile con i relativi dati di traffico</t>
+  </si>
+  <si>
+    <t>Dato che rappresenta un interpolazione di coordinate colorate in RGBA e che segnala i tratti di strada che presentano traffico</t>
+  </si>
+  <si>
+    <t>Variabile</t>
+  </si>
+  <si>
+    <t>Cartina stradale</t>
+  </si>
+  <si>
+    <t>Traffico, colore, segnali, lista punti</t>
+  </si>
+  <si>
+    <t>Posizione, dati di traffico</t>
+  </si>
+  <si>
+    <t>Coda, velocità lenta, traffico elevato, posizione, raggio, veicolo, applicazione mobile</t>
+  </si>
+  <si>
+    <t>Notifica</t>
+  </si>
+  <si>
+    <t>Segnalazione dell’avvenimento di un dato evento stradale riguardante il traffico. Può essere indirizzata da un sottosistema verso il sistema centrale o dal sistema centrale verso le applicazioni mobili, oppure anche da queste ultime verso l’utente.</t>
+  </si>
+  <si>
+    <t>È formato da una stringa che indica il tipo di notifica, e un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t>Segnalazione, avviso, allarme</t>
+  </si>
+  <si>
+    <t>“coda” | 36.82065, 175.07823, “velocità lenta” | 36.82065, 175.07823</t>
+  </si>
+  <si>
+    <t>NotificaDaSC,notificaASC</t>
+  </si>
+  <si>
+    <t>Tipo(string)</t>
+  </si>
+  <si>
+    <t>Dati di traffico, velocità lenta, raggio, conteggio, posizione, coda, intervallo di tempo, bottone, traffico elevato, applicazione mobile</t>
+  </si>
+  <si>
+    <t>Posizione espressa in coordinate GPS (latitudine e longitudine)</t>
+  </si>
+  <si>
+    <t>È formato da due numeri espressi in virgola mobile.</t>
+  </si>
+  <si>
+    <t>70 bit</t>
+  </si>
+  <si>
+    <t>Posizione GPS, Coordinate</t>
+  </si>
+  <si>
+    <t>-36.82065, 175.07823 (esempio di dato)</t>
+  </si>
+  <si>
+    <t>Latitudine (35 bit, virgola mobile), longitudine (35 bit, virgola mobile)</t>
+  </si>
+  <si>
+    <t>Mappa, Coda, Centralina stradale, Centralina automobilistica, Traffico elevato, Automobile, applicazione mobile</t>
+  </si>
+  <si>
+    <t>Raggio</t>
+  </si>
+  <si>
+    <t>Distanza in metri tra la posizione rilevata dall’applicazione mobile e la porzione di mappa caricabile sullo smartphone (viene caricata un’area circolare)</t>
+  </si>
+  <si>
+    <t>Intero positivo</t>
+  </si>
+  <si>
+    <t>16 bit</t>
+  </si>
+  <si>
+    <t>500 m</t>
+  </si>
+  <si>
+    <t>Mappa, applicazione mobile, posizione</t>
+  </si>
+  <si>
+    <t>Sistema informatico composto da un server che mantenga in memoria i dati relativi al traffico e una potente unità di elaborazione che gestisca i dati ricevuti dalle unità esterne.</t>
+  </si>
+  <si>
+    <t>È formato dall’insieme dei dati di traffico e delle notifiche scambiati con gli altri sistemi.</t>
+  </si>
+  <si>
+    <t>unità centrale</t>
+  </si>
+  <si>
+    <t>dati di traffico, notifica</t>
+  </si>
+  <si>
+    <t>Centralina auto, centralina stradale, utente, applicazione, dati di traffico, velocità, mappa, posizione, diagramma, coda, velocità lenta, traffico elevato</t>
+  </si>
+  <si>
+    <t>Stato veicolo</t>
+  </si>
+  <si>
+    <t>Insieme di dati inviati dalla centralina automobilistica riguardanti la posizione, la velocità e l'identificativo del veicolo.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che definisce l'identificativo e da un dato posizione e uno velocità.</t>
+  </si>
+  <si>
+    <t>100 bit</t>
+  </si>
+  <si>
+    <t>Auto, automobile, macchina, unità</t>
   </si>
   <si>
     <t xml:space="preserve">1154 (id) | -24.82065, 95.07823 | 50 (velocità) </t>
   </si>
   <si>
-    <t xml:space="preserve">NumeroID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posizione, velocità</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centralina auto, centralina stradale, utente, app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffico elevato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dato che definisce la presenza di molti veicoli in un determinato tratto stradale; viene scambiato tra sistema centrale e applicazioni mobili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un booleano che indica la presenza di traffico elevato e da un dato di tipo posizione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True | -36.82065, 175.07823  (presenza traffico elevato)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffico(bool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifica, dati di traffico, mappa, conteggio, posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizzatore dell'applicazione mobile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un intero positivo che lo identifica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidatore, utilizzatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identificativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocità</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spazio percorso da un veicolo in un intervallo di tempo, viene raccolta da appositi sensori, misurata in metri al secondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intero positivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 m/s , 50m/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dati di traffico, veicolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocità lenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tratto di strada in cui i veicoli si muovono a una velocità inferiore alla media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">È formato da un booleano che indica la presenza di velocità lenta e da un dato di tipo posizione.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rallentamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 | -36.82065, 175.07823, significa che nella posizione indicata dai due numeri con la virgola c’è velocità lenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vlenta (bool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocità, posizione, dati di traffico, notifica</t>
+    <t>NumeroID</t>
+  </si>
+  <si>
+    <t>Posizione, velocità</t>
+  </si>
+  <si>
+    <t>Centralina auto, centralina stradale, utente, app</t>
+  </si>
+  <si>
+    <t>Traffico elevato</t>
+  </si>
+  <si>
+    <t>Dato che definisce la presenza di molti veicoli in un determinato tratto stradale; viene scambiato tra sistema centrale e applicazioni mobili</t>
+  </si>
+  <si>
+    <t>È formato da un booleano che indica la presenza di traffico elevato e da un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t>True | -36.82065, 175.07823  (presenza traffico elevato)</t>
+  </si>
+  <si>
+    <t>Traffico(bool)</t>
+  </si>
+  <si>
+    <t>Notifica, dati di traffico, mappa, conteggio, posizione</t>
+  </si>
+  <si>
+    <t>Utente</t>
+  </si>
+  <si>
+    <t>Utilizzatore dell'applicazione mobile.</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che lo identifica.</t>
+  </si>
+  <si>
+    <t>Guidatore, utilizzatore</t>
+  </si>
+  <si>
+    <t>identificativo</t>
+  </si>
+  <si>
+    <t>Velocità</t>
+  </si>
+  <si>
+    <t>Spazio percorso da un veicolo in un intervallo di tempo, viene raccolta da appositi sensori, misurata in metri al secondo</t>
+  </si>
+  <si>
+    <t>Intero positivo.</t>
+  </si>
+  <si>
+    <t>10 m/s , 50m/s</t>
+  </si>
+  <si>
+    <t>Dati di traffico, veicolo</t>
+  </si>
+  <si>
+    <t>Velocità lenta</t>
+  </si>
+  <si>
+    <t>Tratto di strada in cui i veicoli si muovono a una velocità inferiore alla media</t>
+  </si>
+  <si>
+    <t>È formato da un booleano che indica la presenza di velocità lenta e da un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t>Rallentamento</t>
+  </si>
+  <si>
+    <t>1 | -36.82065, 175.07823, significa che nella posizione indicata dai due numeri con la virgola c’è velocità lenta</t>
+  </si>
+  <si>
+    <t>Vlenta (bool)</t>
+  </si>
+  <si>
+    <t>Velocità, posizione, dati di traffico, notifica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -522,22 +520,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -545,7 +528,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -568,84 +551,58 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -704,13 +661,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -726,11 +699,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Immagine 2" descr=""/>
+        <xdr:cNvPr id="2" name="Immagine 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -763,11 +736,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Immagine 4" descr=""/>
+        <xdr:cNvPr id="3" name="Immagine 4"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -788,36 +761,293 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="55.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.71"/>
+    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -881,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -910,7 +1140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -939,7 +1169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -970,7 +1200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -1032,7 +1262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -1061,7 +1291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -1094,7 +1324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
@@ -1123,7 +1353,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>87</v>
       </c>
@@ -1150,7 +1380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>94</v>
       </c>
@@ -1179,7 +1409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>102</v>
       </c>
@@ -1212,7 +1442,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1243,7 +1473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>117</v>
       </c>
@@ -1268,7 +1498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1284,172 +1514,165 @@
       <c r="E16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="4" t="n">
+        <v>146</v>
+      </c>
+      <c r="F19" s="4">
         <v>11544</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/requisiti/data dictionary.xlsx
+++ b/requisiti/data dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>Nome</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>Utente incaricato della gestione e della consultazione del sistema centrale.</t>
-  </si>
-  <si>
-    <t>È formato da una stringa che indica il suo nome utente (massimo 8 caratteri) e da una stringa che indica la sua password (massimo 8 caratteri).</t>
-  </si>
-  <si>
-    <t>128 bit</t>
   </si>
   <si>
     <t>Gestore, addetto</t>
@@ -318,9 +312,6 @@
     <t>Dato che rappresenta un interpolazione di coordinate colorate in RGBA e che segnala i tratti di strada che presentano traffico</t>
   </si>
   <si>
-    <t>Variabile</t>
-  </si>
-  <si>
     <t>Cartina stradale</t>
   </si>
   <si>
@@ -505,13 +496,19 @@
   </si>
   <si>
     <t>Velocità, posizione, dati di traffico, notifica</t>
+  </si>
+  <si>
+    <t>È formato da una stringa che indica il suo nome utente e da una stringa che indica la sua password.</t>
+  </si>
+  <si>
+    <t>512 bit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -534,6 +531,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -577,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,6 +599,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,9 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,516 +1097,516 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
+      <c r="D3" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="F19" s="4">
         <v>11544</v>
@@ -1607,72 +1614,72 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/requisiti/data dictionary.xlsx
+++ b/requisiti/data dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
   <si>
     <t>Nome</t>
   </si>
@@ -86,9 +86,6 @@
     <t>È formato da un intero positivo necessario per la sua identificazione e da un dato di tipo posizione.</t>
   </si>
   <si>
-    <t>134 bit</t>
-  </si>
-  <si>
     <t xml:space="preserve">34576 | -36.82065, 175.07823 </t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>È formato da un dato di tipo posizione, un dato di tipo velocità e uno di tipo intervallo di tempo.</t>
-  </si>
-  <si>
-    <t>89 bit</t>
   </si>
   <si>
     <t>Centralina del veicolo</t>
@@ -453,15 +447,9 @@
     <t>Utilizzatore dell'applicazione mobile.</t>
   </si>
   <si>
-    <t>È formato da un intero positivo che lo identifica.</t>
-  </si>
-  <si>
     <t>Guidatore, utilizzatore</t>
   </si>
   <si>
-    <t>identificativo</t>
-  </si>
-  <si>
     <t>Velocità</t>
   </si>
   <si>
@@ -502,6 +490,9 @@
   </si>
   <si>
     <t>512 bit</t>
+  </si>
+  <si>
+    <t>marco | passmarco</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1025,8 @@
   <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,10 +1088,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -1129,380 +1120,380 @@
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,111 +1501,111 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="4">
-        <v>11544</v>
+      <c r="F19" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="4" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
@@ -1623,58 +1614,58 @@
     </row>
     <row r="20" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
